--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3272994.272294192</v>
+        <v>3268689.149297123</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.0747039460366</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>68.11693918766136</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.4250665003792</v>
+        <v>89.50222024065698</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>111.3481872894001</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425924</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>180.2901542626098</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937519</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074803</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>146.6103718881603</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>89.72490574397226</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15.22601502247202</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304057</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589163</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>148.9949700207969</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.6997858564974</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>73.45526112481485</v>
       </c>
       <c r="G8" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,10 +1220,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>97.1706988254226</v>
       </c>
       <c r="F9" t="n">
-        <v>97.37786388182928</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>68.75388363833274</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8789500373964</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>78.14939830226164</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>252.757348783817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>111.3213230702132</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>70.40964990483374</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>106.997776813539</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>23.1099832571731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>216.8436125514024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>212.4287627768742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.8327676896534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731121</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4191,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.4665281367401</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323103</v>
+        <v>414.017252331295</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323103</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323103</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323103</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656067</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
         <v>15.0020469733056</v>
@@ -4330,13 +4330,13 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4345,7 +4345,7 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
@@ -4354,28 +4354,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487952</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323103</v>
+        <v>603.4370373477799</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497.6269409211394</v>
+        <v>659.6960655939093</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>336.3086266515311</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4451,10 +4451,10 @@
         <v>750.10234866528</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487952</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487952</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G4" t="n">
         <v>15.0020469733056</v>
@@ -4512,28 +4512,28 @@
         <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>926.9793945007164</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="C5" t="n">
-        <v>558.0168775603047</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="D5" t="n">
-        <v>558.0168775603047</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="E5" t="n">
-        <v>558.0168775603047</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="F5" t="n">
-        <v>147.0309727706971</v>
+        <v>450.9741015026663</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746971</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030752</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709165</v>
+        <v>823.5081935709196</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654065</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.71856654065</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.71856654065</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.71856654065</v>
+        <v>1545.791548905959</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.71856654065</v>
+        <v>1214.728661562388</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.71856654065</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.71856654065</v>
+        <v>861.9600062922739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.579234564838</v>
+        <v>861.9600062922739</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>942.0027569437835</v>
+        <v>517.1829502645916</v>
       </c>
       <c r="C6" t="n">
-        <v>767.5497276626566</v>
+        <v>342.7299209834645</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6153180014053</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>459.3778629959497</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787518</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189974</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223493</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699367</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1110.218093963852</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1110.218093963852</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1110.218093963852</v>
+        <v>1355.247442983348</v>
       </c>
       <c r="W6" t="n">
-        <v>1110.218093963852</v>
+        <v>1101.010086255146</v>
       </c>
       <c r="X6" t="n">
-        <v>1110.218093963852</v>
+        <v>893.1585860496134</v>
       </c>
       <c r="Y6" t="n">
-        <v>1110.218093963852</v>
+        <v>685.3982872846595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="C7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="D7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306123</v>
+        <v>201.5135224845676</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306123</v>
+        <v>49.9378694707699</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306123</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574674</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193471</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857996</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040909</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="R7" t="n">
-        <v>215.6054393610379</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="S7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="T7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="U7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="V7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="W7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="X7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.10546964306123</v>
+        <v>369.8190495858017</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.301801521354</v>
+        <v>919.9514261357776</v>
       </c>
       <c r="C8" t="n">
-        <v>949.3392845809428</v>
+        <v>919.9514261357776</v>
       </c>
       <c r="D8" t="n">
-        <v>949.3392845809428</v>
+        <v>919.9514261357776</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>919.9514261357776</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794701</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.54400945721</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.54400945721</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.54400945721</v>
+        <v>1683.556516372669</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.54400945721</v>
+        <v>1310.090758111589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.54400945721</v>
+        <v>919.9514261357776</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.0216980221674</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5686687410404</v>
+        <v>290.4558272351247</v>
       </c>
       <c r="D9" t="n">
-        <v>337.6342590797891</v>
+        <v>141.5214175738735</v>
       </c>
       <c r="E9" t="n">
-        <v>178.3968040743336</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1734.238298972666</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.086190740924</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.848834012722</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X9" t="n">
-        <v>1036.997333807189</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.2370350422354</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934478</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934478</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934478</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934478</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514533</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514533</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514533</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514533</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514533</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514533</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="W10" t="n">
-        <v>208.0492565144927</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934478</v>
+        <v>318.8535630120871</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5193,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2368.02429741636</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2148.422832439301</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1859.347605783499</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>866.4638174991042</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2507.920096795703</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2361.030149297792</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2361.030149297792</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.028593415444</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.953366759641</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.953366759641</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722681</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>3813.602863949059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W46" t="n">
-        <v>3524.185693912098</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>3524.185693912098</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.8768876993829</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>33.76564955277397</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.11263957635593</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>181.7279934189943</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>117.1847295890508</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5618377758858912</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8202214113364</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.70888054695382</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.9992124922839</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>134.6711151870879</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253115</v>
+        <v>270592.3620253133</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231944</v>
+        <v>115410.0540231919</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881953</v>
+        <v>62913.63765881992</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197526</v>
+        <v>27875.25362197457</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187941.6748887338</v>
+        <v>-187941.6748887337</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068288</v>
+        <v>185305.0732068276</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.466909891</v>
+        <v>364125.4669098935</v>
       </c>
       <c r="E6" t="n">
-        <v>8429.562315954245</v>
+        <v>8082.18306159612</v>
       </c>
       <c r="F6" t="n">
-        <v>609872.7698902187</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="G6" t="n">
-        <v>609872.769890219</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="H6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358618</v>
       </c>
       <c r="I6" t="n">
-        <v>609872.7698902185</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="J6" t="n">
-        <v>560807.8251616739</v>
+        <v>560460.4459073172</v>
       </c>
       <c r="K6" t="n">
-        <v>546959.1322313992</v>
+        <v>546611.7529770416</v>
       </c>
       <c r="L6" t="n">
-        <v>581997.5162682431</v>
+        <v>581650.1370138868</v>
       </c>
       <c r="M6" t="n">
-        <v>452726.3893386204</v>
+        <v>452379.0100842635</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902187</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358619</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358618</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295061</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594704</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821563</v>
+        <v>210.4296883821577</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426238</v>
+        <v>94.81103524262176</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039889</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666909</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.8013417956749</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>318.1209994683923</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.1081171494882</v>
+        <v>77.03096340921036</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27584,7 +27584,7 @@
         <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625585</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.9036974446493</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276005</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>70.81143042273985</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>46.97484020928241</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>143.075681405453</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>99.06970623744091</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>51.17227409226336</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.0340558069832</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>333.4207846168966</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>60.47438162997834</v>
       </c>
       <c r="F9" t="n">
-        <v>47.69134851155459</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,7 +28031,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>128.4338071212831</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.83070535164074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511773</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968095</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610693</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634654</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378876</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635555</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830796</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107751</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857162</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695368</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644784</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308265</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092682</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930006</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687281</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501464</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230861</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761548</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569182</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235216</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663306</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.510055302383</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3268689.149297123</v>
+        <v>3270449.679599908</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094272.435746299</v>
+        <v>8094272.4357463</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>68.1169391876612</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.11693918766136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.50222024065698</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>13.45644170423119</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>185.8657905289188</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>180.2901542626098</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>162.0144646145854</v>
       </c>
       <c r="V6" t="n">
-        <v>89.72490574397226</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.22601502247202</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>18.85194885956211</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.45526112481485</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>225.1998938049417</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>97.1706988254226</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>94.29464112529119</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>9.085774025514283</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>68.75388363833274</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>78.14939830226164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>167.7243167060843</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>70.40964990483374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.73433514019987</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.703916880933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.42659968729146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>60.64713141731121</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.017252331295</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262257</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262257</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262257</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262257</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262257</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="Y2" t="n">
-        <v>603.4370373477799</v>
+        <v>103.9826713767709</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.6960655939093</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>485.2430363127824</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>336.3086266515311</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X3" t="n">
-        <v>750.10234866528</v>
+        <v>547.0901982909854</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.10234866528</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.9600062922739</v>
+        <v>633.2871838628489</v>
       </c>
       <c r="C5" t="n">
-        <v>861.9600062922739</v>
+        <v>633.2871838628489</v>
       </c>
       <c r="D5" t="n">
-        <v>861.9600062922739</v>
+        <v>633.2871838628489</v>
       </c>
       <c r="E5" t="n">
-        <v>861.9600062922739</v>
+        <v>633.2871838628489</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026663</v>
+        <v>222.3012790732413</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746987</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030773</v>
+        <v>521.2049416030775</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709196</v>
+        <v>823.5081935709193</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="U5" t="n">
-        <v>1545.791548905959</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="V5" t="n">
-        <v>1214.728661562388</v>
+        <v>1372.655679197085</v>
       </c>
       <c r="W5" t="n">
-        <v>861.9600062922739</v>
+        <v>1019.887023926971</v>
       </c>
       <c r="X5" t="n">
-        <v>861.9600062922739</v>
+        <v>1019.887023926971</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.9600062922739</v>
+        <v>1019.887023926971</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645916</v>
+        <v>209.0110855978847</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834645</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222133</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787548</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906552</v>
+        <v>1282.227686548384</v>
       </c>
       <c r="V6" t="n">
-        <v>1355.247442983348</v>
+        <v>1047.075578316641</v>
       </c>
       <c r="W6" t="n">
-        <v>1101.010086255146</v>
+        <v>792.8382215884395</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1585860496134</v>
+        <v>584.9867213829067</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>377.2264226179528</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858017</v>
+        <v>350.776677000385</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858017</v>
+        <v>350.776677000385</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495858017</v>
+        <v>350.776677000385</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8190495858017</v>
+        <v>202.8635834179919</v>
       </c>
       <c r="F7" t="n">
-        <v>369.8190495858017</v>
+        <v>202.8635834179919</v>
       </c>
       <c r="G7" t="n">
-        <v>201.5135224845676</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>49.9378694707699</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858017</v>
+        <v>350.776677000385</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.9514261357776</v>
+        <v>824.6114411906399</v>
       </c>
       <c r="C8" t="n">
-        <v>919.9514261357776</v>
+        <v>824.6114411906399</v>
       </c>
       <c r="D8" t="n">
-        <v>919.9514261357776</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="E8" t="n">
-        <v>919.9514261357776</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642783</v>
+        <v>1940.985186697646</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.556516372669</v>
+        <v>1588.216531427531</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.090758111589</v>
+        <v>1214.750773166452</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.9514261357776</v>
+        <v>824.6114411906399</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>464.9088565162518</v>
+        <v>498.075619177915</v>
       </c>
       <c r="C9" t="n">
-        <v>290.4558272351247</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>141.5214175738735</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809305</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U9" t="n">
-        <v>1538.125457466751</v>
+        <v>1204.450475442448</v>
       </c>
       <c r="V9" t="n">
-        <v>1302.973349235008</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="W9" t="n">
-        <v>1048.735992506806</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="X9" t="n">
-        <v>840.8844923012737</v>
+        <v>874.0512549629368</v>
       </c>
       <c r="Y9" t="n">
-        <v>633.1241935363198</v>
+        <v>666.290956197983</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="D10" t="n">
-        <v>318.8535630120871</v>
+        <v>347.3497871391181</v>
       </c>
       <c r="E10" t="n">
-        <v>318.8535630120871</v>
+        <v>199.436693556725</v>
       </c>
       <c r="F10" t="n">
-        <v>171.9636155141767</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="G10" t="n">
-        <v>171.9636155141767</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>318.8535630120871</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2368.02429741636</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2148.422832439301</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1859.347605783499</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1604.663117577612</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1315.245947540652</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1087.256396642634</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>866.4638174991042</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
         <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,16 +6545,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
         <v>484.8112968429803</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
         <v>402.7245934908939</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7396,28 +7396,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7648,13 +7648,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>102.8768876993829</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>50.8603366460105</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>181.7279934189943</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>142.9753202488373</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.8807364711618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8202214113364</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
@@ -26331,31 +26331,31 @@
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253133</v>
+        <v>270592.362025313</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231919</v>
+        <v>115410.0540231936</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881992</v>
+        <v>62913.63765881991</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197457</v>
+        <v>27875.25362197505</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515982</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888978</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687973</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-187941.6748887337</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068276</v>
+        <v>185305.0732068277</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098935</v>
+        <v>364125.4669098919</v>
       </c>
       <c r="E6" t="n">
-        <v>8082.18306159612</v>
+        <v>8394.824390518887</v>
       </c>
       <c r="F6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.031964783</v>
       </c>
       <c r="G6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="H6" t="n">
-        <v>609525.3906358618</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="I6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="J6" t="n">
-        <v>560460.4459073172</v>
+        <v>560773.0872362384</v>
       </c>
       <c r="K6" t="n">
-        <v>546611.7529770416</v>
+        <v>546924.3943059628</v>
       </c>
       <c r="L6" t="n">
-        <v>581650.1370138868</v>
+        <v>581962.7783428078</v>
       </c>
       <c r="M6" t="n">
-        <v>452379.0100842635</v>
+        <v>452691.6514131851</v>
       </c>
       <c r="N6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="O6" t="n">
-        <v>609525.3906358619</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="P6" t="n">
-        <v>609525.3906358618</v>
+        <v>609838.0319647829</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.383688386538633e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.383688386538633e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959472</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821577</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262176</v>
+        <v>94.81103524262312</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666909</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734857</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>286.5661024330217</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27432,13 +27432,13 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.1209994683923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.03096340921036</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>192.3165434992463</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377791</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.3860942051306</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>70.81143042273985</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,10 +27751,10 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>63.81952600941369</v>
       </c>
       <c r="V6" t="n">
-        <v>143.075681405453</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>99.06970623744091</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>199.7327044925327</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>333.4207846168966</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>102.5523646651932</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>60.47438162997834</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>111.4783440781863</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.068535313724837</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>128.4338071212831</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757164</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
         <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
